--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 3\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 4\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Username</t>
-  </si>
-  <si>
-    <t>;1</t>
   </si>
 </sst>
 </file>
@@ -412,9 +409,6 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <v>0</v>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>minhkhoi</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -410,6 +413,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 4\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C955979-D4BD-4A4C-823C-16162D221F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12130"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,20 +356,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -379,7 +380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -396,7 +397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -413,12 +414,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C4">
         <v>0</v>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C955979-D4BD-4A4C-823C-16162D221F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780578B4-ADCD-4353-BC80-B8962A3BAC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="C4">
         <v>0</v>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22120221_student_hcmus_edu_vn/Documents/game/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C955979-D4BD-4A4C-823C-16162D221F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4C955979-D4BD-4A4C-823C-16162D221F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FFB1FC3-E539-4D4F-B59D-CE487B78D05E}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>minhkhoi</t>
+  </si>
+  <si>
+    <t>namuong</t>
   </si>
 </sst>
 </file>
@@ -357,19 +360,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -380,7 +383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -397,7 +400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -414,7 +417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -428,6 +431,23 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1200</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
     </row>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22120221_student_hcmus_edu_vn/Documents/game/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 5\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4C955979-D4BD-4A4C-823C-16162D221F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FFB1FC3-E539-4D4F-B59D-CE487B78D05E}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -43,12 +42,18 @@
   </si>
   <si>
     <t>namuong</t>
+  </si>
+  <si>
+    <t>hoangnam</t>
+  </si>
+  <si>
+    <t>moinhat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,20 +364,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -383,7 +388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -400,12 +405,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -417,7 +422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -434,7 +439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -448,6 +453,40 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
     </row>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 4\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C6A6F6-5B3F-4752-8A31-BCD6034B77D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12130"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -39,12 +40,15 @@
   </si>
   <si>
     <t>minhkhoi</t>
+  </si>
+  <si>
+    <t>TungDo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,20 +359,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -379,7 +383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -396,7 +400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -413,7 +417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -427,6 +431,23 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
     </row>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\game\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 5\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C6A6F6-5B3F-4752-8A31-BCD6034B77D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="17280" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -43,12 +42,15 @@
   </si>
   <si>
     <t>TungDo</t>
+  </si>
+  <si>
+    <t>moinhat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,20 +361,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -383,7 +385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -400,7 +402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -417,7 +419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -434,7 +436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -448,6 +450,23 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
     </row>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 5\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22120221_student_hcmus_edu_vn/Documents/game/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_6A02C44CC7A2EA1C9E3F24229EDF4B222AD2B821" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A11EBA49-C962-45E5-9737-2FE3ADED2FE7}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="17280" windowHeight="9420"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -45,12 +46,15 @@
   </si>
   <si>
     <t>moinhat</t>
+  </si>
+  <si>
+    <t>namuong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,20 +365,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -385,7 +389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -402,7 +406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -419,7 +423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -436,7 +440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -453,7 +457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -467,6 +471,23 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
     </row>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22120221_student_hcmus_edu_vn/Documents/game/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_6A02C44CC7A2EA1C9E3F24229EDF4B222AD2B821" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A11EBA49-C962-45E5-9737-2FE3ADED2FE7}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_6A02C44CC7A2EA1C9E3F24229EDF4B222AD2B821" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA8B085B-AF29-46CA-8DC9-B55D3BEE70B6}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>namuong</t>
+  </si>
+  <si>
+    <t>nam354</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -491,6 +494,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22120221_student_hcmus_edu_vn/Documents/game/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_6A02C44CC7A2EA1C9E3F24229EDF4B222AD2B821" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA8B085B-AF29-46CA-8DC9-B55D3BEE70B6}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,20 +367,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -392,7 +391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -409,7 +408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -426,7 +425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -443,7 +442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -460,7 +459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -477,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -494,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>nam354</t>
+  </si>
+  <si>
+    <t>anhlavodich</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -510,6 +513,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>198100</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>198100</v>
+        <v>198600</v>
       </c>
       <c r="C9">
         <v>0</v>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 5\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>198600</v>
+        <v>198000</v>
       </c>
       <c r="C9">
         <v>0</v>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 5\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22120221_student_hcmus_edu_vn/Documents/game/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_2CF6E75F0FA2EA7C115328EAF1186BF62BD265E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBCF3A8-59F0-4BA5-A8C0-6026E8AA4545}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="17280" windowHeight="8880"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,20 +371,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -394,7 +395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -411,7 +412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -428,7 +429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -445,7 +446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -462,7 +463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -479,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -496,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -513,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>anhlavodich</t>
+  </si>
+  <si>
+    <t>;0;0</t>
+  </si>
+  <si>
+    <t>;13;23</t>
+  </si>
+  <si>
+    <t>;-1000;-98000.0</t>
   </si>
 </sst>
 </file>
@@ -518,16 +527,25 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>198000</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -390,6 +390,12 @@
   <cols>
     <col min="1" max="1" width="15.36328125" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22120221_student_hcmus_edu_vn/Documents/game/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_2CF6E75F0FA2EA7C115328EAF1186BF62BD265E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBCF3A8-59F0-4BA5-A8C0-6026E8AA4545}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99D01CF-4763-427B-8450-04CA841DDBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,13 +378,13 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -395,7 +395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -429,7 +429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>;-1000;-98000.0</t>
+  </si>
+  <si>
+    <t>;0</t>
+  </si>
+  <si>
+    <t>;21</t>
+  </si>
+  <si>
+    <t>;-1000</t>
+  </si>
+  <si>
+    <t>;1</t>
+  </si>
+  <si>
+    <t>;20</t>
+  </si>
+  <si>
+    <t>;+100</t>
   </si>
 </sst>
 </file>
@@ -383,7 +401,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,16 +449,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -448,16 +475,25 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99D01CF-4763-427B-8450-04CA841DDBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D0BBE8-AEE8-4237-AD74-B790030509AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,42 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\game\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\game\main game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C6A6F6-5B3F-4752-8A31-BCD6034B77D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCAC3DD-8FFA-446A-A04C-8F7F6E3B7AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Tiền</t>
+  </si>
+  <si>
     <t>vipvipvip</t>
   </si>
   <si>
     <t>nammoivuive</t>
-  </si>
-  <si>
-    <t>Tiền</t>
-  </si>
-  <si>
-    <t>Username</t>
   </si>
   <si>
     <t>minhkhoi</t>
@@ -49,13 +44,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,7 +67,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -78,14 +86,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -132,20 +147,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -175,12 +190,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -219,235 +234,261 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
+      <c r="B3" s="2">
+        <v>300</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>300</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1000</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1000</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="2">
+        <v>900</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D0BBE8-AEE8-4237-AD74-B790030509AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9C0725-E545-41EF-89A8-95B96902631C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9C0725-E545-41EF-89A8-95B96902631C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C468BA-6857-42D0-895D-F7783A466F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>anhlavodich</t>
+  </si>
+  <si>
+    <t>;0;1</t>
+  </si>
+  <si>
+    <t>;11;11</t>
+  </si>
+  <si>
+    <t>;-100;+100</t>
   </si>
 </sst>
 </file>
@@ -437,13 +446,22 @@
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D0BBE8-AEE8-4237-AD74-B790030509AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -55,12 +54,21 @@
   </si>
   <si>
     <t>anhlavodich</t>
+  </si>
+  <si>
+    <t>;0</t>
+  </si>
+  <si>
+    <t>;12</t>
+  </si>
+  <si>
+    <t>;-500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,20 +379,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -395,7 +403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -412,7 +420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -429,7 +437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -446,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -463,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -480,7 +488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -497,7 +505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -514,21 +522,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>198000</v>
+        <v>197500</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -56,13 +56,16 @@
     <t>anhlavodich</t>
   </si>
   <si>
-    <t>;0</t>
-  </si>
-  <si>
-    <t>;12</t>
-  </si>
-  <si>
-    <t>;-500</t>
+    <t>;0;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;12;41;24;24;13;44</t>
+  </si>
+  <si>
+    <t>;-500;-500;-500;-500;-1000;-1000</t>
+  </si>
+  <si>
+    <t>;1;2;3;4;2</t>
   </si>
 </sst>
 </file>
@@ -527,16 +530,16 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>197500</v>
+        <v>193100</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -546,6 +549,9 @@
       </c>
       <c r="H9" t="s">
         <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\khoi-game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D0BBE8-AEE8-4237-AD74-B790030509AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8D5473-2460-4E3F-BB4D-298D03440211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>vipvipvip</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>anhlavodich</t>
+  </si>
+  <si>
+    <t>pain69</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -531,6 +534,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2000</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\game\main game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCAC3DD-8FFA-446A-A04C-8F7F6E3B7AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD056D9-92F4-47C9-8535-8E983850D3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\game\main game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD056D9-92F4-47C9-8535-8E983850D3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F67884B-59A7-4F04-8050-80D9D1A53DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\game\main game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B60539-05AB-47F5-872F-25524E50036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D55E51A-D4A1-4E70-BD81-23B74BF0508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -38,6 +38,21 @@
   </si>
   <si>
     <t>TungDo</t>
+  </si>
+  <si>
+    <t>;3;1;1;4</t>
+  </si>
+  <si>
+    <t>superprovip</t>
+  </si>
+  <si>
+    <t>;0</t>
+  </si>
+  <si>
+    <t>;32</t>
+  </si>
+  <si>
+    <t>;-750.0</t>
   </si>
 </sst>
 </file>
@@ -409,20 +424,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -450,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -467,12 +482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -483,8 +498,11 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -499,6 +517,32 @@
       </c>
       <c r="E5" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>750</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D55E51A-D4A1-4E70-BD81-23B74BF0508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17179409-C6F1-43B3-92CC-E23595AF33E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,13 +46,13 @@
     <t>superprovip</t>
   </si>
   <si>
-    <t>;0</t>
-  </si>
-  <si>
-    <t>;32</t>
-  </si>
-  <si>
-    <t>;-750.0</t>
+    <t>;0;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;32;42;42;42;42;43</t>
+  </si>
+  <si>
+    <t>;-750.0;-100;-100;-100;-100;-100</t>
   </si>
 </sst>
 </file>
@@ -524,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\game\main game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B60539-05AB-47F5-872F-25524E50036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329C9DC2-9D13-492F-A3F7-F7690AC04684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>TungDo</t>
+  </si>
+  <si>
+    <t>;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;13;42;42;42;42</t>
+  </si>
+  <si>
+    <t>;-100;-100;-100;-100;-100</t>
   </si>
 </sst>
 </file>
@@ -489,16 +498,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\game\main game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B60539-05AB-47F5-872F-25524E50036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15380" windowHeight="8330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
   <si>
-    <t>Tiền</t>
-  </si>
-  <si>
     <t>vipvipvip</t>
   </si>
   <si>
@@ -38,12 +34,36 @@
   </si>
   <si>
     <t>TungDo</t>
+  </si>
+  <si>
+    <t>anhlavodich</t>
+  </si>
+  <si>
+    <t>Vật phẩm</t>
+  </si>
+  <si>
+    <t>Lịch sử giao động tiền</t>
+  </si>
+  <si>
+    <t>;0</t>
+  </si>
+  <si>
+    <t>;32</t>
+  </si>
+  <si>
+    <t>;-100</t>
+  </si>
+  <si>
+    <t>Lịch sử chọn xe</t>
+  </si>
+  <si>
+    <t>Tiền hiện có</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,71 +425,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1900</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>300</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>1000</v>
@@ -484,9 +522,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>900</v>
@@ -498,6 +536,23 @@
         <v>0</v>
       </c>
       <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -45,19 +45,43 @@
     <t>Lịch sử giao động tiền</t>
   </si>
   <si>
+    <t>Lịch sử chọn xe</t>
+  </si>
+  <si>
+    <t>Tiền hiện có</t>
+  </si>
+  <si>
+    <t>;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;32;33;44;2</t>
+  </si>
+  <si>
+    <t>;-100;-200;-200;-200</t>
+  </si>
+  <si>
+    <t>taikhoanmoi</t>
+  </si>
+  <si>
     <t>;0</t>
   </si>
   <si>
-    <t>;32</t>
-  </si>
-  <si>
-    <t>;-100</t>
-  </si>
-  <si>
-    <t>Lịch sử chọn xe</t>
-  </si>
-  <si>
-    <t>Tiền hiện có</t>
+    <t>;4</t>
+  </si>
+  <si>
+    <t>;-200</t>
+  </si>
+  <si>
+    <t>taotaikhoan</t>
+  </si>
+  <si>
+    <t>;0;0</t>
+  </si>
+  <si>
+    <t>;22;31</t>
+  </si>
+  <si>
+    <t>;-200;-500</t>
   </si>
 </sst>
 </file>
@@ -429,7 +453,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -450,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -484,25 +508,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -554,6 +578,64 @@
       </c>
       <c r="E6" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C135C8-8F52-4FF2-BB8C-9024AB7DBB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15380" windowHeight="8330"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -82,12 +83,21 @@
   </si>
   <si>
     <t>;-200;-500</t>
+  </si>
+  <si>
+    <t>;0;0;0;1;1</t>
+  </si>
+  <si>
+    <t>;0;0;0;0;3</t>
+  </si>
+  <si>
+    <t>;-100;-200;-100;+600;+700</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,7 +459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -459,17 +469,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -503,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -529,24 +539,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -563,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -580,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -609,7 +628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\khoi-game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A22474B-DB1E-48F0-9D60-774F8E6289D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15380" windowHeight="8330"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -82,12 +83,15 @@
   </si>
   <si>
     <t>;-200;-500</t>
+  </si>
+  <si>
+    <t>pain69</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,27 +453,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -503,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -529,7 +533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -546,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -563,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -580,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -609,7 +613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -636,6 +640,23 @@
       </c>
       <c r="I8" s="4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C135C8-8F52-4FF2-BB8C-9024AB7DBB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2690" yWindow="2690" windowWidth="17280" windowHeight="8960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Username</t>
   </si>
@@ -92,12 +91,33 @@
   </si>
   <si>
     <t>;-100;-200;-100;+600;+700</t>
+  </si>
+  <si>
+    <t>Số trận đấu</t>
+  </si>
+  <si>
+    <t>Số lần thắng</t>
+  </si>
+  <si>
+    <t>Số lần thua</t>
+  </si>
+  <si>
+    <t>Lịch sử đấu (Thắng-1/Thua-0)</t>
+  </si>
+  <si>
+    <t>;1;1</t>
+  </si>
+  <si>
+    <t>;22;23</t>
+  </si>
+  <si>
+    <t>;+100;+100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,33 +479,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G1" t="s">
         <v>8</v>
       </c>
@@ -496,7 +529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -513,7 +546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -539,7 +572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -565,7 +598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -582,24 +615,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -628,7 +670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -652,9 +694,6 @@
       </c>
       <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\game\main game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246ED342-9D6E-4906-B8E5-2376B7D1172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2690" yWindow="2690" windowWidth="17280" windowHeight="8960"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Username</t>
   </si>
@@ -112,12 +113,21 @@
   </si>
   <si>
     <t>;+100;+100</t>
+  </si>
+  <si>
+    <t>;0;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;14;43;33;3;3;0</t>
+  </si>
+  <si>
+    <t>;-100;-400.0;-400.0;-215.0;-215.0;-100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,7 +489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -489,18 +499,18 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -546,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -572,7 +582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -598,24 +608,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -641,7 +660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -670,7 +689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\game\main game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246ED342-9D6E-4906-B8E5-2376B7D1172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15380" windowHeight="8330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Username</t>
   </si>
@@ -106,15 +105,6 @@
     <t>Lịch sử đấu (Thắng-1/Thua-0)</t>
   </si>
   <si>
-    <t>;1;1</t>
-  </si>
-  <si>
-    <t>;22;23</t>
-  </si>
-  <si>
-    <t>;+100;+100</t>
-  </si>
-  <si>
     <t>;0;0;0;0;0;0</t>
   </si>
   <si>
@@ -122,12 +112,33 @@
   </si>
   <si>
     <t>;-100;-400.0;-400.0;-215.0;-215.0;-100</t>
+  </si>
+  <si>
+    <t>;1;1;0;0;0;1;0;0</t>
+  </si>
+  <si>
+    <t>;22;23;43;22;41;30;30;24</t>
+  </si>
+  <si>
+    <t>;+100;+100;-2200;-200;-1000;+100;-250;-100</t>
+  </si>
+  <si>
+    <t>accmoii</t>
+  </si>
+  <si>
+    <t>;0;0;1</t>
+  </si>
+  <si>
+    <t>;14;33;13</t>
+  </si>
+  <si>
+    <t>;-120.0;-120;+50.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -188,6 +199,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,28 +501,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -556,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -582,7 +594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -608,7 +620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -625,42 +637,42 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2200</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -689,7 +701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -714,6 +726,35 @@
       <c r="H8" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2">
+        <v>150</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22120221_student_hcmus_edu_vn/Documents/game/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_953E3BA816E6016ADEE08E41E0E335AA4A26A7E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85AD8A69-02C3-4E6F-A4B3-775E7379AC29}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15380" windowHeight="8330"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Username</t>
   </si>
@@ -133,12 +134,21 @@
   </si>
   <si>
     <t>;-120.0;-120;+50.0</t>
+  </si>
+  <si>
+    <t>nam354</t>
+  </si>
+  <si>
+    <t>;23;30;30</t>
+  </si>
+  <si>
+    <t>;-100;-100;+200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,28 +511,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -568,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -594,7 +604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -620,7 +630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -646,7 +656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -672,7 +682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -701,7 +711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -727,7 +737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -753,8 +763,34 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <v>590</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22120221_student_hcmus_edu_vn/Documents/game/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_953E3BA816E6016ADEE08E41E0E335AA4A26A7E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85AD8A69-02C3-4E6F-A4B3-775E7379AC29}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118A5CC9-1EDC-4DB3-ADC7-5B7F655A3E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,15 +85,6 @@
     <t>;-200;-500</t>
   </si>
   <si>
-    <t>;0;0;0;1;1</t>
-  </si>
-  <si>
-    <t>;0;0;0;0;3</t>
-  </si>
-  <si>
-    <t>;-100;-200;-100;+600;+700</t>
-  </si>
-  <si>
     <t>Số trận đấu</t>
   </si>
   <si>
@@ -143,6 +134,15 @@
   </si>
   <si>
     <t>;-100;-100;+200</t>
+  </si>
+  <si>
+    <t>;0;0;0;1;1;1;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;0;0;0;0;3;0;1;4;2;24;43</t>
+  </si>
+  <si>
+    <t>;-100;-200;-100;+600;+700;+100;-100;-100;-100;-100;-100</t>
   </si>
 </sst>
 </file>
@@ -521,18 +521,18 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,16 +540,16 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -604,33 +604,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -647,16 +647,16 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -673,16 +673,16 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -711,7 +711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -737,9 +737,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2">
         <v>150</v>
@@ -754,21 +754,21 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
       </c>
       <c r="B16" s="2">
         <v>590</v>
@@ -783,13 +783,13 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -126,13 +126,13 @@
     <t>accmoii</t>
   </si>
   <si>
-    <t>;0;0;1</t>
-  </si>
-  <si>
-    <t>;14;33;13</t>
-  </si>
-  <si>
-    <t>;-120.0;-120;+50.0</t>
+    <t>;0;0;1;1;0;1;0;0;0</t>
+  </si>
+  <si>
+    <t>;14;33;13;13;10;13;31;0;4</t>
+  </si>
+  <si>
+    <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
@@ -732,16 +732,16 @@
         <v>34</v>
       </c>
       <c r="B9" s="2">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B855E86-E795-4BE2-92E9-42B9DB5E9013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15380" windowHeight="8330"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,40 +25,79 @@
     <t>Username</t>
   </si>
   <si>
+    <t>Tiền hiện có</t>
+  </si>
+  <si>
+    <t>Số trận đấu</t>
+  </si>
+  <si>
+    <t>Số lần thắng</t>
+  </si>
+  <si>
+    <t>Số lần thua</t>
+  </si>
+  <si>
+    <t>Lịch sử đấu (Thắng-1/Thua-0)</t>
+  </si>
+  <si>
+    <t>Lịch sử chọn xe</t>
+  </si>
+  <si>
+    <t>Lịch sử giao động tiền</t>
+  </si>
+  <si>
+    <t>Vật phẩm</t>
+  </si>
+  <si>
     <t>vipvipvip</t>
   </si>
   <si>
     <t>nammoivuive</t>
   </si>
   <si>
+    <t>;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;32;33;44;2</t>
+  </si>
+  <si>
+    <t>;-100;-200;-200;-200</t>
+  </si>
+  <si>
     <t>minhkhoi</t>
   </si>
   <si>
+    <t>;0;0;0;1;1</t>
+  </si>
+  <si>
+    <t>;0;0;0;0;3</t>
+  </si>
+  <si>
+    <t>;-100;-200;-100;+600;+700</t>
+  </si>
+  <si>
     <t>TungDo</t>
   </si>
   <si>
+    <t>;0;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;14;43;33;3;3;0</t>
+  </si>
+  <si>
+    <t>;-100;-400.0;-400.0;-215.0;-215.0;-100</t>
+  </si>
+  <si>
     <t>anhlavodich</t>
   </si>
   <si>
-    <t>Vật phẩm</t>
-  </si>
-  <si>
-    <t>Lịch sử giao động tiền</t>
-  </si>
-  <si>
-    <t>Lịch sử chọn xe</t>
-  </si>
-  <si>
-    <t>Tiền hiện có</t>
-  </si>
-  <si>
-    <t>;0;0;0;0</t>
-  </si>
-  <si>
-    <t>;32;33;44;2</t>
-  </si>
-  <si>
-    <t>;-100;-200;-200;-200</t>
+    <t>;1;1;0;0;0;1;0;0</t>
+  </si>
+  <si>
+    <t>;22;23;43;22;41;30;30;24</t>
+  </si>
+  <si>
+    <t>;+100;+100;-2200;-200;-1000;+100;-250;-100</t>
   </si>
   <si>
     <t>taikhoanmoi</t>
@@ -82,45 +122,6 @@
   </si>
   <si>
     <t>;-200;-500</t>
-  </si>
-  <si>
-    <t>;0;0;0;1;1</t>
-  </si>
-  <si>
-    <t>;0;0;0;0;3</t>
-  </si>
-  <si>
-    <t>;-100;-200;-100;+600;+700</t>
-  </si>
-  <si>
-    <t>Số trận đấu</t>
-  </si>
-  <si>
-    <t>Số lần thắng</t>
-  </si>
-  <si>
-    <t>Số lần thua</t>
-  </si>
-  <si>
-    <t>Lịch sử đấu (Thắng-1/Thua-0)</t>
-  </si>
-  <si>
-    <t>;0;0;0;0;0;0</t>
-  </si>
-  <si>
-    <t>;14;43;33;3;3;0</t>
-  </si>
-  <si>
-    <t>;-100;-400.0;-400.0;-215.0;-215.0;-100</t>
-  </si>
-  <si>
-    <t>;1;1;0;0;0;1;0;0</t>
-  </si>
-  <si>
-    <t>;22;23;43;22;41;30;30;24</t>
-  </si>
-  <si>
-    <t>;+100;+100;-2200;-200;-1000;+100;-250;-100</t>
   </si>
   <si>
     <t>accmoii</t>
@@ -138,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,13 +150,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -187,19 +188,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,154 +510,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C5" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1300</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1400</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>210</v>
@@ -663,18 +670,18 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
         <v>1600</v>
@@ -689,21 +696,21 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2">
         <v>1100</v>
@@ -718,16 +725,16 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -753,8 +760,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E15" s="5"/>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B855E86-E795-4BE2-92E9-42B9DB5E9013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA78A0-4D7E-4BFB-AC8C-E20E9B05456A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E5F082-C90B-443D-AA3C-88A9FA5270E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15380" windowHeight="8330"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,15 +85,6 @@
     <t>;-200;-500</t>
   </si>
   <si>
-    <t>;0;0;0;1;1</t>
-  </si>
-  <si>
-    <t>;0;0;0;0;3</t>
-  </si>
-  <si>
-    <t>;-100;-200;-100;+600;+700</t>
-  </si>
-  <si>
     <t>Số trận đấu</t>
   </si>
   <si>
@@ -133,12 +125,21 @@
   </si>
   <si>
     <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100</t>
+  </si>
+  <si>
+    <t>;0;0;0;1;1;0</t>
+  </si>
+  <si>
+    <t>;0;0;0;0;3;42</t>
+  </si>
+  <si>
+    <t>;-100;-200;-100;+600;+700;-200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,7 +502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -511,18 +512,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,16 +531,16 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -551,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -568,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -594,33 +595,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="C4" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -637,16 +638,16 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -663,16 +664,16 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -701,7 +702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -727,9 +728,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2">
         <v>50</v>
@@ -744,16 +745,16 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E15" s="5"/>
     </row>
   </sheetData>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E5F082-C90B-443D-AA3C-88A9FA5270E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,15 +117,6 @@
     <t>accmoii</t>
   </si>
   <si>
-    <t>;0;0;1;1;0;1;0;0;0</t>
-  </si>
-  <si>
-    <t>;14;33;13;13;10;13;31;0;4</t>
-  </si>
-  <si>
-    <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100</t>
-  </si>
-  <si>
     <t>;0;0;0;1;1;0</t>
   </si>
   <si>
@@ -134,12 +124,21 @@
   </si>
   <si>
     <t>;-100;-200;-100;+600;+700;-200</t>
+  </si>
+  <si>
+    <t>;0;0;1;1;0;1;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;14;33;13;13;10;13;31;0;4;42</t>
+  </si>
+  <si>
+    <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100;-100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -512,18 +511,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -569,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -595,7 +594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -612,16 +611,16 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -647,7 +646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -673,7 +672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -702,7 +701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -728,33 +727,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="2">
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="C9" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E15" s="5"/>
     </row>
   </sheetData>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -126,13 +126,13 @@
     <t>;-100;-200;-100;+600;+700;-200</t>
   </si>
   <si>
-    <t>;0;0;1;1;0;1;0;0;0;0</t>
-  </si>
-  <si>
-    <t>;14;33;13;13;10;13;31;0;4;42</t>
-  </si>
-  <si>
-    <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100;-100</t>
+    <t>;0;0;1;1;0;1;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;14;33;13;13;10;13;31;0;4;42;0</t>
+  </si>
+  <si>
+    <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100;-100;-100</t>
   </si>
 </sst>
 </file>
@@ -732,16 +732,16 @@
         <v>31</v>
       </c>
       <c r="B9" s="2">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="C9" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\khoi-game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60869D8A-672B-4EA6-872E-26F51268653C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8960"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Username</t>
   </si>
@@ -133,12 +134,24 @@
   </si>
   <si>
     <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100;-100;-100</t>
+  </si>
+  <si>
+    <t>pain69</t>
+  </si>
+  <si>
+    <t>pain79</t>
+  </si>
+  <si>
+    <t>;11;0;40.0;40.0</t>
+  </si>
+  <si>
+    <t>;-100;-590;-100;-100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,28 +514,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -568,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -594,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -620,7 +633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -646,7 +659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -672,7 +685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -701,7 +714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -727,7 +740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -753,8 +766,51 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <v>140</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\khoi-game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60869D8A-672B-4EA6-872E-26F51268653C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0924ACEE-94F0-40C8-B46C-CFC1AC3A5E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -97,15 +97,6 @@
     <t>Lịch sử đấu (Thắng-1/Thua-0)</t>
   </si>
   <si>
-    <t>;0;0;0;0;0;0</t>
-  </si>
-  <si>
-    <t>;14;43;33;3;3;0</t>
-  </si>
-  <si>
-    <t>;-100;-400.0;-400.0;-215.0;-215.0;-100</t>
-  </si>
-  <si>
     <t>;1;1;0;0;0;1;0;0</t>
   </si>
   <si>
@@ -146,6 +137,15 @@
   </si>
   <si>
     <t>;-100;-590;-100;-100</t>
+  </si>
+  <si>
+    <t>;0;0;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;14;43;33;3;3;0;4</t>
+  </si>
+  <si>
+    <t>;-100;-400.0;-400.0;-215.0;-215.0;-100;-100</t>
   </si>
 </sst>
 </file>
@@ -524,18 +524,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -607,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -624,42 +624,42 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C5" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -676,16 +676,16 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -714,7 +714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -740,9 +740,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2">
         <v>240</v>
@@ -757,21 +757,21 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>38</v>
       </c>
       <c r="B16" s="2">
         <v>140</v>
@@ -789,15 +789,15 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\game\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0924ACEE-94F0-40C8-B46C-CFC1AC3A5E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B8DC5F-CF1E-46C3-8335-4BB1175D2416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Username</t>
   </si>
@@ -109,15 +109,6 @@
     <t>accmoii</t>
   </si>
   <si>
-    <t>;0;0;0;1;1;0</t>
-  </si>
-  <si>
-    <t>;0;0;0;0;3;42</t>
-  </si>
-  <si>
-    <t>;-100;-200;-100;+600;+700;-200</t>
-  </si>
-  <si>
     <t>;0;0;1;1;0;1;0;0;0;0;0</t>
   </si>
   <si>
@@ -146,6 +137,18 @@
   </si>
   <si>
     <t>;-100;-400.0;-400.0;-215.0;-215.0;-100;-100</t>
+  </si>
+  <si>
+    <t>;2;2</t>
+  </si>
+  <si>
+    <t>;0;0;0;1;1;0;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;0;0;0;0;3;42;33;31;0;42;43</t>
+  </si>
+  <si>
+    <t>;-100;-200;-100;+600;+700;-200;-500;-100;-120;-100;-220</t>
   </si>
 </sst>
 </file>
@@ -524,18 +527,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -581,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -607,33 +610,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -650,16 +656,16 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -685,7 +691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -714,7 +720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -740,7 +746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -757,21 +763,21 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
       </c>
       <c r="B16" s="2">
         <v>140</v>
@@ -789,15 +795,15 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B8DC5F-CF1E-46C3-8335-4BB1175D2416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Username</t>
   </si>
@@ -109,15 +108,6 @@
     <t>accmoii</t>
   </si>
   <si>
-    <t>;0;0;1;1;0;1;0;0;0;0;0</t>
-  </si>
-  <si>
-    <t>;14;33;13;13;10;13;31;0;4;42;0</t>
-  </si>
-  <si>
-    <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100;-100;-100</t>
-  </si>
-  <si>
     <t>pain69</t>
   </si>
   <si>
@@ -149,12 +139,24 @@
   </si>
   <si>
     <t>;-100;-200;-100;+600;+700;-200;-500;-100;-120;-100;-220</t>
+  </si>
+  <si>
+    <t>;2;2;2</t>
+  </si>
+  <si>
+    <t>;0;0;1;1;0;1;0;0;0;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;14;33;13;13;10;13;31;0;4;42;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100;-100;-100;-120;-100;-100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,7 +519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -527,18 +529,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.36328125" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -584,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -610,7 +612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -627,19 +629,19 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -656,16 +658,16 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -691,7 +693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -720,7 +722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -746,38 +748,41 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>32</v>
       </c>
       <c r="B16" s="2">
         <v>140</v>
@@ -795,15 +800,15 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -141,9 +141,6 @@
     <t>;-100;-200;-100;+600;+700;-200;-500;-100;-120;-100;-220</t>
   </si>
   <si>
-    <t>;2;2;2</t>
-  </si>
-  <si>
     <t>;0;0;1;1;0;1;0;0;0;0;0;0;0;0</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100;-100;-100;-120;-100;-100</t>
+  </si>
+  <si>
+    <t>;2;2;2;2;2</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="2">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2">
         <v>14</v>
@@ -765,16 +765,16 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>42</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Username</t>
   </si>
@@ -141,16 +141,13 @@
     <t>;-100;-200;-100;+600;+700;-200;-500;-100;-120;-100;-220</t>
   </si>
   <si>
-    <t>;0;0;1;1;0;1;0;0;0;0;0;0;0;0</t>
-  </si>
-  <si>
-    <t>;14;33;13;13;10;13;31;0;4;42;0;0;0;0</t>
-  </si>
-  <si>
-    <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100;-100;-100;-120;-100;-100</t>
-  </si>
-  <si>
-    <t>;2;2;2;2;2</t>
+    <t>;0;0;1;1;0;1;0;0;0;0;0;0;0;0;0;0;1;1;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;14;33;13;13;10;13;31;0;4;42;0;0;0;0;0;3.0;3.0;43;31;3;44;0</t>
+  </si>
+  <si>
+    <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100;-100;-100;-120;-100;-100;-100;-4999999500.0;+4999999500.0;+4999999100.0;-14999997000;-120;-120;-120</t>
   </si>
 </sst>
 </file>
@@ -205,11 +202,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -218,6 +212,18 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,46 +532,46 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.36328125" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.26953125" customWidth="1"/>
+    <col min="8" max="8" width="76.453125" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -573,16 +579,16 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -590,16 +596,16 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1300</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>4</v>
       </c>
       <c r="F3" t="s">
@@ -616,16 +622,16 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>11</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>9</v>
       </c>
       <c r="F4" t="s">
@@ -637,7 +643,7 @@
       <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -645,16 +651,16 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>130</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>7</v>
       </c>
       <c r="F5" t="s">
@@ -671,16 +677,16 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>210</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" t="s">
@@ -697,16 +703,16 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1600</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" t="s">
@@ -718,7 +724,7 @@
       <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -726,16 +732,16 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1100</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" t="s">
@@ -752,17 +758,17 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2">
-        <v>80</v>
-      </c>
-      <c r="C9" s="2">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>11</v>
+      <c r="B9" s="1">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
@@ -773,27 +779,24 @@
       <c r="H9" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>140</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>4</v>
       </c>
       <c r="F16" t="s">
@@ -810,16 +813,16 @@
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22120221_student_hcmus_edu_vn/Documents/game/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_C946C54B97E7CF0FE7606B43E72675AB4258DDCE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6312E44-914E-453E-8614-6B61FEF3C76D}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8960"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Username</t>
   </si>
@@ -148,12 +149,21 @@
   </si>
   <si>
     <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100;-100;-100;-120;-100;-100;-100;-4999999500.0;+4999999500.0;+4999999100.0;-14999997000;-120;-120;-120</t>
+  </si>
+  <si>
+    <t>nam354</t>
+  </si>
+  <si>
+    <t>;1</t>
+  </si>
+  <si>
+    <t>;+100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,28 +535,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.36328125" customWidth="1"/>
-    <col min="7" max="7" width="33.26953125" customWidth="1"/>
-    <col min="8" max="8" width="76.453125" customWidth="1"/>
-    <col min="9" max="9" width="23.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1"/>
+    <col min="8" max="8" width="76.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -575,7 +585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -592,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -618,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -647,7 +657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -673,7 +683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -699,7 +709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -728,7 +738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -754,7 +764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -780,10 +790,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -809,7 +819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -824,6 +834,32 @@
       </c>
       <c r="E17" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1">
+        <v>200</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22120221_student_hcmus_edu_vn/Documents/game/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_C946C54B97E7CF0FE7606B43E72675AB4258DDCE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6312E44-914E-453E-8614-6B61FEF3C76D}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="11_C946C54B97E7CF0FE7606B43E72675AB4258DDCE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26D6D156-7BC8-46A7-AB30-8D77ABE4A161}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Username</t>
   </si>
@@ -154,10 +154,13 @@
     <t>nam354</t>
   </si>
   <si>
-    <t>;1</t>
-  </si>
-  <si>
-    <t>;+100</t>
+    <t>;1;0;0;1;0</t>
+  </si>
+  <si>
+    <t>;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;+100;-100;-100;+100;-230</t>
   </si>
 </sst>
 </file>
@@ -841,25 +844,25 @@
         <v>43</v>
       </c>
       <c r="B18" s="1">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22120221_student_hcmus_edu_vn/Documents/game/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="11_C946C54B97E7CF0FE7606B43E72675AB4258DDCE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26D6D156-7BC8-46A7-AB30-8D77ABE4A161}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666ACDBA-63F5-4E16-9310-0D0E5453747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,18 +548,18 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="8" width="76.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="76.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -588,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -631,12 +631,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="C4" s="2">
         <v>11</v>
@@ -660,7 +660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -686,7 +686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -712,7 +712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -741,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -767,7 +767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -793,10 +793,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -822,7 +822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\NMLT\game\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666ACDBA-63F5-4E16-9310-0D0E5453747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DE8DF2-1A16-4F91-A3A6-E48A0ED8E0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,18 +130,6 @@
     <t>;-100;-400.0;-400.0;-215.0;-215.0;-100;-100</t>
   </si>
   <si>
-    <t>;2;2</t>
-  </si>
-  <si>
-    <t>;0;0;0;1;1;0;0;0;0;0;0</t>
-  </si>
-  <si>
-    <t>;0;0;0;0;3;42;33;31;0;42;43</t>
-  </si>
-  <si>
-    <t>;-100;-200;-100;+600;+700;-200;-500;-100;-120;-100;-220</t>
-  </si>
-  <si>
     <t>;0;0;1;1;0;1;0;0;0;0;0;0;0;0;0;0;1;1;0;0;0;0</t>
   </si>
   <si>
@@ -161,6 +149,18 @@
   </si>
   <si>
     <t>;+100;-100;-100;+100;-230</t>
+  </si>
+  <si>
+    <t>;2</t>
+  </si>
+  <si>
+    <t>;0;0;0;1;1;0;0;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;0;0;0;0;3;42;33;31;0;42;43;0</t>
+  </si>
+  <si>
+    <t>;-100;-200;-100;+600;+700;-200;-500;-100;-120;-100;-220;-240</t>
   </si>
 </sst>
 </file>
@@ -636,28 +636,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -784,13 +784,13 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -841,7 +841,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>170</v>
@@ -856,13 +856,13 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/userhistory.xlsx
+++ b/data/userhistory.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22120221_student_hcmus_edu_vn/Documents/game/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\version 6\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="11_C946C54B97E7CF0FE7606B43E72675AB4258DDCE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26D6D156-7BC8-46A7-AB30-8D77ABE4A161}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Username</t>
   </si>
@@ -142,15 +141,6 @@
     <t>;-100;-200;-100;+600;+700;-200;-500;-100;-120;-100;-220</t>
   </si>
   <si>
-    <t>;0;0;1;1;0;1;0;0;0;0;0;0;0;0;0;0;1;1;0;0;0;0</t>
-  </si>
-  <si>
-    <t>;14;33;13;13;10;13;31;0;4;42;0;0;0;0;0;3.0;3.0;43;31;3;44;0</t>
-  </si>
-  <si>
-    <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100;-100;-100;-120;-100;-100;-100;-4999999500.0;+4999999500.0;+4999999100.0;-14999997000;-120;-120;-120</t>
-  </si>
-  <si>
     <t>nam354</t>
   </si>
   <si>
@@ -161,12 +151,30 @@
   </si>
   <si>
     <t>;+100;-100;-100;+100;-230</t>
+  </si>
+  <si>
+    <t>;0;0;1;1;0;1;0;0;0;0;0;0;0;0;0;0;1;1;0;0;0;0;0</t>
+  </si>
+  <si>
+    <t>;14;33;13;13;10;13;31;0;4;42;0;0;0;0;0;3.0;3.0;43;31;3;44;0;3</t>
+  </si>
+  <si>
+    <t>;-120.0;-120;+50.0;+100;-100;+1499700;-1499700;-1499700;-100;-100;-100;-120;-100;-100;-100;-4999999500.0;+4999999500.0;+4999999100.0;-14999997000;-120;-120;-120;-190</t>
+  </si>
+  <si>
+    <t>newacc</t>
+  </si>
+  <si>
+    <t>;2</t>
+  </si>
+  <si>
+    <t>;-140</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,28 +546,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="8" width="76.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.26953125" customWidth="1"/>
+    <col min="8" max="8" width="76.453125" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -588,7 +596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -605,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -631,7 +639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -660,7 +668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -686,7 +694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -712,7 +720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -741,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -767,36 +775,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -822,7 +830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -839,9 +847,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
         <v>170</v>
@@ -856,13 +864,39 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
